--- a/src/test/resources/testdata/seller9.xlsx
+++ b/src/test/resources/testdata/seller9.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="209">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,34 @@
   </si>
   <si>
     <t>ASJE3VTT636KL</t>
+  </si>
+  <si>
+    <t>30/10--0:59</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,22 +999,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1025,27 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1018,6 +1062,27 @@
       <c r="B4" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1090,6 +1155,27 @@
       <c r="B13" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C13" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1106,6 +1192,27 @@
       <c r="B15" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1122,6 +1229,27 @@
       <c r="B17" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C17" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1162,6 +1290,27 @@
       <c r="B22" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C22" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1178,6 +1327,27 @@
       <c r="B24" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C24" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1186,6 +1356,27 @@
       <c r="B25" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I25" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1234,6 +1425,27 @@
       <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C31" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1282,6 +1494,27 @@
       <c r="B37" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C37" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H37" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I37" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1306,6 +1539,27 @@
       <c r="B40" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C40" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G40" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H40" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I40" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -1314,6 +1568,27 @@
       <c r="B41" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C41" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G41" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H41" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I41" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1322,6 +1597,27 @@
       <c r="B42" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C42" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G42" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H42" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I42" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -1330,6 +1626,27 @@
       <c r="B43" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C43" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G43" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H43" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I43" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -1354,6 +1671,27 @@
       <c r="B46" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C46" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G46" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H46" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I46" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -1370,6 +1708,27 @@
       <c r="B48" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C48" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G48" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H48" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I48" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -1378,6 +1737,27 @@
       <c r="B49" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C49" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G49" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H49" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I49" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -1394,6 +1774,27 @@
       <c r="B51" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I51" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -1434,6 +1835,27 @@
       <c r="B56" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C56" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E56" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F56" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G56" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H56" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I56" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -1442,6 +1864,27 @@
       <c r="B57" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H57" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I57" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -1450,6 +1893,27 @@
       <c r="B58" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C58" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E58" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F58" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G58" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H58" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I58" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -1466,6 +1930,27 @@
       <c r="B60" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C60" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E60" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F60" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G60" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H60" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I60" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -1482,6 +1967,27 @@
       <c r="B62" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C62" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E62" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F62" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G62" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H62" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I62" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -1490,6 +1996,27 @@
       <c r="B63" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I63" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -1498,6 +2025,27 @@
       <c r="B64" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I64" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -1522,6 +2070,27 @@
       <c r="B67" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C67" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D67" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E67" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F67" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G67" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H67" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I67" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -1578,6 +2147,27 @@
       <c r="B74" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C74" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E74" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F74" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G74" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H74" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I74" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -1594,6 +2184,27 @@
       <c r="B76" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C76" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D76" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E76" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F76" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G76" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H76" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I76" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
@@ -1602,6 +2213,27 @@
       <c r="B77" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H77" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I77" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -1610,6 +2242,27 @@
       <c r="B78" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C78" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E78" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F78" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G78" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H78" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I78" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -1634,6 +2287,27 @@
       <c r="B81" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H81" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I81" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -1642,6 +2316,27 @@
       <c r="B82" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C82" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="E82" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="F82" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="G82" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="H82" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="I82" t="n" s="0">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -1658,6 +2353,27 @@
       <c r="B84" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C84" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E84" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F84" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G84" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H84" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I84" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -1682,6 +2398,27 @@
       <c r="B87" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C87" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E87" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F87" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G87" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H87" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I87" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
@@ -1714,6 +2451,27 @@
       <c r="B91" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I91" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -1730,6 +2488,27 @@
       <c r="B93" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I93" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -1738,6 +2517,27 @@
       <c r="B94" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -1746,6 +2546,27 @@
       <c r="B95" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C95" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D95" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E95" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="G95" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="H95" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I95" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -1762,6 +2583,27 @@
       <c r="B97" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C97" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D97" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E97" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F97" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G97" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H97" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I97" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -1794,6 +2636,27 @@
       <c r="B101" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C101" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D101" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E101" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F101" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G101" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H101" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I101" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
@@ -1826,6 +2689,27 @@
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C105" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D105" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E105" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F105" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G105" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H105" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I105" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -1834,6 +2718,27 @@
       <c r="B106" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C106" t="n" s="0">
+        <v>37.6</v>
+      </c>
+      <c r="D106" t="n" s="0">
+        <v>37.6</v>
+      </c>
+      <c r="E106" t="n" s="0">
+        <v>37.6</v>
+      </c>
+      <c r="F106" t="n" s="0">
+        <v>37.6</v>
+      </c>
+      <c r="G106" t="n" s="0">
+        <v>37.6</v>
+      </c>
+      <c r="H106" t="n" s="0">
+        <v>37.6</v>
+      </c>
+      <c r="I106" t="n" s="0">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -1850,6 +2755,27 @@
       <c r="B108" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H108" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I108" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -1858,6 +2784,27 @@
       <c r="B109" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C109" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D109" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E109" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F109" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G109" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H109" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I109" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
@@ -1866,6 +2813,27 @@
       <c r="B110" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H110" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I110" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
@@ -1874,6 +2842,27 @@
       <c r="B111" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C111" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="D111" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="E111" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="F111" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="G111" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="H111" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="I111" t="n" s="0">
+        <v>29.99</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
@@ -1882,6 +2871,27 @@
       <c r="B112" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C112" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="D112" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="E112" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="F112" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="G112" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="H112" t="n" s="0">
+        <v>29.99</v>
+      </c>
+      <c r="I112" t="n" s="0">
+        <v>29.99</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
@@ -1890,6 +2900,27 @@
       <c r="B113" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C113" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D113" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E113" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F113" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G113" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H113" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I113" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -1922,6 +2953,27 @@
       <c r="B117" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C117" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D117" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E117" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F117" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G117" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H117" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I117" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
@@ -1938,6 +2990,27 @@
       <c r="B119" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C119" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D119" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E119" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F119" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G119" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H119" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I119" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -1954,6 +3027,27 @@
       <c r="B121" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H121" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I121" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
@@ -1970,6 +3064,27 @@
       <c r="B123" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C123" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D123" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E123" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F123" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G123" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H123" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I123" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -2018,6 +3133,27 @@
       <c r="B129" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C129" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D129" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E129" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F129" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G129" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H129" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I129" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
@@ -2026,6 +3162,27 @@
       <c r="B130" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H130" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="I130" t="n" s="0">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
@@ -2034,6 +3191,27 @@
       <c r="B131" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C131" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D131" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E131" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F131" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G131" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H131" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I131" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
@@ -2106,6 +3284,27 @@
       <c r="B140" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C140" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D140" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E140" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F140" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G140" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H140" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I140" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
@@ -2122,6 +3321,27 @@
       <c r="B142" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C142" t="n" s="0">
+        <v>26.99</v>
+      </c>
+      <c r="D142" t="n" s="0">
+        <v>26.99</v>
+      </c>
+      <c r="E142" t="n" s="0">
+        <v>26.99</v>
+      </c>
+      <c r="F142" t="n" s="0">
+        <v>26.99</v>
+      </c>
+      <c r="G142" t="n" s="0">
+        <v>26.99</v>
+      </c>
+      <c r="H142" t="n" s="0">
+        <v>26.99</v>
+      </c>
+      <c r="I142" t="n" s="0">
+        <v>26.99</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
@@ -2178,6 +3398,27 @@
       <c r="B149" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C149" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D149" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E149" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F149" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G149" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H149" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I149" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
@@ -2194,6 +3435,27 @@
       <c r="B151" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H151" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I151" t="n" s="0">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
@@ -2349,7 +3611,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +3619,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,7 +3643,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
@@ -2389,7 +3651,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +3659,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +3667,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +3675,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +3683,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +3691,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +3699,36 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C182" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D182" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E182" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F182" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G182" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="H182" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I182" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +3736,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +3760,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,7 +3776,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
@@ -2501,7 +3784,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +3792,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,31 +3800,52 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
+      </c>
+      <c r="C194" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="D194" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="E194" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="F194" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="G194" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="H194" t="n" s="0">
+        <v>39.99</v>
+      </c>
+      <c r="I194" t="n" s="0">
+        <v>39.99</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +3853,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,23 +3861,23 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
@@ -2581,17 +3885,9 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
